--- a/ApolloQA/Data/RatingManual/GA/VA00053.InsuranceScoreTierFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00053.InsuranceScoreTierFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.InsuranceScoreTierFactors" sheetId="1" r:id="Raf516613a1874cf6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.InsuranceScoreTierFactors" sheetId="1" r:id="Rfec5986c11c04663"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -39,7 +39,7 @@
         <x:v>AB03</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8108</x:v>
+        <x:v>0.8147</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -47,7 +47,7 @@
         <x:v>AB04</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8312</x:v>
+        <x:v>0.8417</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -55,7 +55,7 @@
         <x:v>AB05</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8501</x:v>
+        <x:v>0.8562</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -63,7 +63,7 @@
         <x:v>AB06</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9368</x:v>
+        <x:v>0.9394</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -71,7 +71,7 @@
         <x:v>AB07</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0115</x:v>
+        <x:v>1.0089</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>AB08</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0257</x:v>
+        <x:v>1.0208</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>AB09</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0664</x:v>
+        <x:v>1.0688</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -95,7 +95,7 @@
         <x:v>AB10</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1345</x:v>
+        <x:v>1.1408</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -103,7 +103,7 @@
         <x:v>AB11</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1368</x:v>
+        <x:v>1.1527</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         <x:v>AB12</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1920</x:v>
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -119,7 +119,7 @@
         <x:v>AB13</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2047</x:v>
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -127,7 +127,7 @@
         <x:v>AB14</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2100</x:v>
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -135,7 +135,7 @@
         <x:v>AB15</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2207</x:v>
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +143,7 @@
         <x:v>AB16</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2233</x:v>
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -151,7 +151,7 @@
         <x:v>AB17</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2233</x:v>
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
     <x:row>
